--- a/StructureDefinition-C4BB-Patient.xlsx
+++ b/StructureDefinition-C4BB-Patient.xlsx
@@ -778,7 +778,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="mb"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
@@ -870,7 +870,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="um"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
@@ -886,7 +886,7 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
       &lt;code value="pt"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;

--- a/StructureDefinition-C4BB-Patient.xlsx
+++ b/StructureDefinition-C4BB-Patient.xlsx
@@ -659,7 +659,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PatientIdentifierType</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPatientIdentifierType</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -884,7 +884,7 @@
   &lt;type&gt;
     &lt;coding&gt;
       &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
-      &lt;code value="pt"/&gt;
+      &lt;code value="pat"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
 &lt;/valueIdentifier&gt;</t>
@@ -2274,7 +2274,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-C4BB-Patient.xlsx
+++ b/StructureDefinition-C4BB-Patient.xlsx
@@ -775,8 +775,8 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
-      &lt;code value="mb"/&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="MB"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
 &lt;/valueIdentifier&gt;</t>
